--- a/data/trans_bre/P16_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>11,53</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>7,43</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>171,59%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-23,48%</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>166,32%</t>
+          <t>171,47%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>-20,02%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>206,74%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16,4%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1089,91%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>801,75%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-19,98%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 12,55</t>
+          <t>1,82; 12,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 2,97</t>
+          <t>-4,74; 3,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 6,71</t>
+          <t>0,4; 7,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 4,1</t>
+          <t>-3,85; 3,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 13,94</t>
+          <t>5,84; 18,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 760,28</t>
+          <t>3,32; 13,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>-13,88; 5,58</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6,6; 849,67</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-28,55; 924,64</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-23,3; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-88,35; 615,54</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="O5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-72,17; 102,36</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>127,87%</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>158,11%</t>
+          <t>25,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>130,39%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>48,95%</t>
+          <t>157,14%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>20,32%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>28,86%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>49,04%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>21,44%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 6,96</t>
+          <t>-4,71; 6,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 7,62</t>
+          <t>-0,8; 7,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 9,62</t>
+          <t>1,01; 10,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 6,65</t>
+          <t>-4,11; 7,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 13,43</t>
+          <t>-12,81; 11,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,25; 187,27</t>
+          <t>-3,02; 13,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,04; 1106,69</t>
+          <t>-7,57; 13,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 627,45</t>
+          <t>-48,56; 191,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-41,76; 122,54</t>
+          <t>-44,86; 1000,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-26,67; 189,16</t>
+          <t>1,7; 579,76</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-41,14; 158,1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-62,82; 240,12</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-19,01; 188,86</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-35,18; 143,08</t>
         </is>
       </c>
     </row>
@@ -881,47 +993,67 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>42,6%</t>
+          <t>5,8</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>125,64%</t>
+          <t>42,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>52,28%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>42,44%</t>
+          <t>130,32%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>53,82%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>33,88%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>42,49%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>29,06%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 7,86</t>
+          <t>-1,71; 8,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 5,17</t>
+          <t>-3,85; 5,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 9,98</t>
+          <t>1,86; 9,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 10,98</t>
+          <t>-1,83; 11,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 13,01</t>
+          <t>-2,5; 10,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,62; 151,39</t>
+          <t>-1,05; 12,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-39,08; 116,24</t>
+          <t>-3,92; 13,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,27; 340,61</t>
+          <t>-18,5; 156,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 144,23</t>
+          <t>-42,53; 113,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 127,9</t>
+          <t>23,83; 328,33</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-18,32; 152,61</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-13,88; 103,1</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 133,49</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-19,82; 116,74</t>
         </is>
       </c>
     </row>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,42</t>
+          <t>9,44</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,55</t>
+          <t>7,89</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,88</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>12,08</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>3,45</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>61,02%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>111,96%</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>59,14%</t>
+          <t>60,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>118,36%</t>
+          <t>106,13%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>61,37%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>117,67%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>64,21%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>11,14%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4,36%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 13,13</t>
+          <t>-0,37; 13,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 14,51</t>
+          <t>3,35; 15,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 13,21</t>
+          <t>0,81; 13,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,69; 20,33</t>
+          <t>9,19; 20,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 12,76</t>
+          <t>5,06; 19,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 148,17</t>
+          <t>-6,41; 13,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,03; 245,63</t>
+          <t>-8,03; 11,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 135,29</t>
+          <t>-5,39; 140,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>56,29; 201,85</t>
+          <t>29,3; 245,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 51,97</t>
+          <t>1,82; 127,63</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>58,33; 200,04</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>21,77; 133,46</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-17,77; 52,8</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-19,97; 40,64</t>
         </is>
       </c>
     </row>
@@ -1116,52 +1308,72 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,02</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,3</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,01</t>
+          <t>9,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>11,2</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>45,93%</t>
+          <t>7,57</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>53,31%</t>
+          <t>45,98%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>39,91%</t>
+          <t>35,11%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>50,58%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>38,51%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>35,19%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>16,86%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>16,23%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 15,81</t>
+          <t>-1,87; 16,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 14,85</t>
+          <t>-1,98; 15,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 19,02</t>
+          <t>0,89; 17,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 18,22</t>
+          <t>0,66; 17,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 17,76</t>
+          <t>0,39; 21,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 114,74</t>
+          <t>-2,22; 17,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 99,09</t>
+          <t>-3,65; 16,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,51; 121,35</t>
+          <t>-9,5; 125,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 87,57</t>
+          <t>-9,38; 101,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 44,58</t>
+          <t>1,32; 104,38</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 83,79</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 82,99</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 44,0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-6,4; 43,18</t>
         </is>
       </c>
     </row>
@@ -1241,47 +1473,67 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,55</t>
+          <t>12,37</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,62</t>
+          <t>17,79</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>26,49</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>49,45%</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>38,02%</t>
+          <t>20,42</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>49,48%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>63,28%</t>
+          <t>40,42%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-9,6%</t>
+          <t>16,01%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>61,59%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>82,28%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-9,54%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>49,29%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,22; 22,0</t>
+          <t>3,76; 21,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 22,77</t>
+          <t>1,4; 22,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 12,88</t>
+          <t>-5,69; 15,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,2; 31,24</t>
+          <t>6,44; 27,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,27; 7,15</t>
+          <t>13,89; 38,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,61; 106,63</t>
+          <t>-16,94; 7,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 98,99</t>
+          <t>8,65; 31,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 43,17</t>
+          <t>10,29; 100,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,49; 126,03</t>
+          <t>2,89; 93,67</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-34,95; 17,91</t>
+          <t>-13,76; 50,68</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>17,91; 120,35</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>36,58; 151,11</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-35,02; 18,46</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>16,99; 90,08</t>
         </is>
       </c>
     </row>
@@ -1361,47 +1633,67 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,83</t>
+          <t>9,71</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>5,7</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8,23</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>63,76%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>58,96%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>55,45%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>68,84%</t>
+          <t>58,48%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>60,8%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>68,37%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>71,4%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>23,56%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>30,71%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,89; 10,58</t>
+          <t>4,69; 10,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,31; 9,6</t>
+          <t>3,51; 9,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,54</t>
+          <t>4,39; 10,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,24; 13,48</t>
+          <t>6,51; 12,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 9,73</t>
+          <t>8,91; 17,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>33,87; 98,91</t>
+          <t>1,59; 10,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,39; 99,67</t>
+          <t>3,88; 12,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>28,75; 88,16</t>
+          <t>33,8; 99,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>37,7; 107,12</t>
+          <t>24,6; 98,05</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,15; 43,93</t>
+          <t>29,82; 92,32</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>40,54; 102,07</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>44,18; 109,63</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>6,3; 44,89</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>13,54; 51,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
